--- a/data/evaluation/evaluation_South_Spring_Pomelo.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Pomelo.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4316.269047619047</v>
+        <v>4329.60238095238</v>
       </c>
       <c r="C3" t="n">
-        <v>43122455.89645062</v>
+        <v>43256233.67422839</v>
       </c>
       <c r="D3" t="n">
-        <v>6566.769060691156</v>
+        <v>6576.947139382252</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1897379137850187</v>
+        <v>0.1872242568269893</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4270.828391727259</v>
+        <v>4249.984375626884</v>
       </c>
       <c r="C4" t="n">
-        <v>43183380.38081975</v>
+        <v>43199079.51790629</v>
       </c>
       <c r="D4" t="n">
-        <v>6571.406271173602</v>
+        <v>6572.600666243636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1885931552414645</v>
+        <v>0.1882981716812039</v>
       </c>
     </row>
     <row r="5">
